--- a/unstructured_new(7col).xlsx
+++ b/unstructured_new(7col).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B33B0B6-CDC7-41F5-87DA-51AA5CFF7DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1BB000-128C-42E3-A89F-57A362267546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4929,7 +4929,7 @@
   <dimension ref="A1:G512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
